--- a/Instances/H_matrix.xlsx
+++ b/Instances/H_matrix.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07ed5a09c14e9223/BEP/Bestanden Bilge/Instances (Synchromodal transport planning with flexible services Mathematical model and heuristic approach)/Instances/6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxgu\PycharmProjects\BEP_try_3.0_1\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{8AF1923B-A996-415F-88A9-5406C2E6DC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4942993-4E71-4BB6-ACB2-2ECDC11B262C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C202C17-604B-4E3F-A6ED-4891DF836DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{0EB572D7-DC3A-4141-B3E2-83543DC1B625}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0EB572D7-DC3A-4141-B3E2-83543DC1B625}"/>
   </bookViews>
   <sheets>
     <sheet name="Barge" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Delta</t>
   </si>
@@ -65,13 +62,70 @@
     <t>Willebroek</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>Neuss</t>
+  </si>
+  <si>
+    <t>Delta1</t>
+  </si>
+  <si>
+    <t>Euromax1</t>
+  </si>
+  <si>
+    <t>HOME1</t>
+  </si>
+  <si>
+    <t>Moerdijk1</t>
+  </si>
+  <si>
+    <t>Venlo1</t>
+  </si>
+  <si>
+    <t>Duisburg1</t>
+  </si>
+  <si>
+    <t>Willebroek1</t>
+  </si>
+  <si>
+    <t>Neuss1</t>
+  </si>
+  <si>
+    <t>Dortmund1</t>
+  </si>
+  <si>
+    <t>Nuremberg1</t>
+  </si>
+  <si>
+    <t>Delta2</t>
+  </si>
+  <si>
+    <t>Euromax2</t>
+  </si>
+  <si>
+    <t>HOME2</t>
+  </si>
+  <si>
+    <t>Moerdijk2</t>
+  </si>
+  <si>
+    <t>Venlo2</t>
+  </si>
+  <si>
+    <t>Duisburg2</t>
+  </si>
+  <si>
+    <t>Willebroek2</t>
+  </si>
+  <si>
+    <t>Neuss2</t>
+  </si>
+  <si>
+    <t>Dortmund2</t>
+  </si>
+  <si>
+    <t>Nuremberg2</t>
   </si>
 </sst>
 </file>
@@ -95,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,15 +157,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -131,7 +204,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,102 +500,2959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EF0621-EE10-4885-96F2-DC4EE0AE4A24}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>39.896999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>13.299000000000001</v>
+      </c>
+      <c r="D2">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="E2">
+        <v>66.495000000000005</v>
+      </c>
+      <c r="F2">
+        <v>172.887</v>
+      </c>
+      <c r="G2">
+        <v>212.78400000000002</v>
+      </c>
+      <c r="H2">
+        <v>132.99</v>
+      </c>
+      <c r="I2">
+        <v>232.73250000000002</v>
+      </c>
+      <c r="J2">
+        <v>265.98</v>
+      </c>
+      <c r="K2">
+        <v>598.45500000000004</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>631.25919999999996</v>
+        <v>13.299000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="E3">
+        <v>79.794000000000011</v>
+      </c>
+      <c r="F3">
+        <v>186.18600000000001</v>
+      </c>
+      <c r="G3">
+        <v>219.43350000000001</v>
+      </c>
+      <c r="H3">
+        <v>146.28900000000002</v>
+      </c>
+      <c r="I3">
+        <v>239.38200000000001</v>
+      </c>
+      <c r="J3">
+        <v>279.279</v>
+      </c>
+      <c r="K3">
+        <v>631.70249999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>585.15599999999995</v>
+        <v>33.247500000000002</v>
+      </c>
+      <c r="C4">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="F4">
+        <v>152.9385</v>
+      </c>
+      <c r="G4">
+        <v>179.53650000000002</v>
+      </c>
+      <c r="H4">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="I4">
+        <v>199.48500000000001</v>
+      </c>
+      <c r="J4">
+        <v>226.08300000000003</v>
+      </c>
+      <c r="K4">
+        <v>585.15600000000006</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>66.495000000000005</v>
+      </c>
+      <c r="C5">
+        <v>79.794000000000011</v>
+      </c>
+      <c r="D5">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>119.691</v>
+      </c>
+      <c r="G5">
+        <v>159.58800000000002</v>
+      </c>
+      <c r="H5">
+        <v>84.227000000000004</v>
+      </c>
+      <c r="I5">
+        <v>168.45400000000001</v>
+      </c>
+      <c r="J5">
+        <v>207.46440000000001</v>
+      </c>
+      <c r="K5">
         <v>565.6508</v>
       </c>
+      <c r="L5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>172.887</v>
+      </c>
+      <c r="C6">
+        <v>186.18600000000001</v>
+      </c>
+      <c r="D6">
+        <v>152.9385</v>
+      </c>
+      <c r="E6">
+        <v>119.691</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>53.196000000000005</v>
+      </c>
+      <c r="H6">
+        <v>142.74260000000001</v>
+      </c>
+      <c r="I6">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="J6">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="K6">
         <v>438.86700000000002</v>
       </c>
+      <c r="L6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7">
+        <v>212.78400000000002</v>
+      </c>
+      <c r="C7">
+        <v>219.43350000000001</v>
+      </c>
+      <c r="D7">
+        <v>179.53650000000002</v>
+      </c>
+      <c r="E7">
+        <v>159.58800000000002</v>
+      </c>
+      <c r="F7">
+        <v>53.196000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>178.20660000000001</v>
+      </c>
+      <c r="I7">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="J7">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="K7">
         <v>398.97</v>
       </c>
+      <c r="L7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8">
+        <v>132.99</v>
+      </c>
+      <c r="C8">
+        <v>146.28900000000002</v>
+      </c>
+      <c r="D8">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="E8">
+        <v>84.227000000000004</v>
+      </c>
+      <c r="F8">
+        <v>142.74260000000001</v>
+      </c>
+      <c r="G8">
+        <v>178.20660000000001</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>182.6396</v>
+      </c>
+      <c r="J8">
+        <v>227.8562</v>
+      </c>
+      <c r="K8">
         <v>562.10440000000006</v>
       </c>
+      <c r="L8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>232.73250000000002</v>
+      </c>
+      <c r="C9">
+        <v>239.38200000000001</v>
+      </c>
+      <c r="D9">
+        <v>199.48500000000001</v>
+      </c>
+      <c r="E9">
+        <v>168.45400000000001</v>
+      </c>
+      <c r="F9">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="G9">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="H9">
+        <v>182.6396</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>67.381600000000006</v>
+      </c>
+      <c r="K9">
+        <v>393.65040000000005</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>265.98</v>
+      </c>
+      <c r="C10">
+        <v>279.279</v>
+      </c>
+      <c r="D10">
+        <v>226.08300000000003</v>
+      </c>
+      <c r="E10">
+        <v>207.46440000000001</v>
+      </c>
+      <c r="F10">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="G10">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="H10">
+        <v>227.8562</v>
+      </c>
+      <c r="I10">
+        <v>67.381600000000006</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>386.55760000000004</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>598.45500000000004</v>
+      </c>
+      <c r="C11">
+        <v>631.70249999999999</v>
+      </c>
+      <c r="D11">
+        <v>585.15600000000006</v>
+      </c>
+      <c r="E11">
+        <v>565.6508</v>
+      </c>
+      <c r="F11">
+        <v>438.86700000000002</v>
+      </c>
+      <c r="G11">
+        <v>398.97</v>
+      </c>
+      <c r="H11">
+        <v>562.10440000000006</v>
+      </c>
+      <c r="I11">
+        <v>393.65040000000005</v>
+      </c>
+      <c r="J11">
+        <v>386.55760000000004</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>393.65039999999999</v>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>13.299000000000001</v>
+      </c>
+      <c r="N12">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="O12">
+        <v>66.495000000000005</v>
+      </c>
+      <c r="P12">
+        <v>172.887</v>
+      </c>
+      <c r="Q12">
+        <v>212.78400000000002</v>
+      </c>
+      <c r="R12">
+        <v>132.99</v>
+      </c>
+      <c r="S12">
+        <v>232.73250000000002</v>
+      </c>
+      <c r="T12">
+        <v>265.98</v>
+      </c>
+      <c r="U12">
+        <v>598.45500000000004</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>386.55759999999998</v>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L13">
+        <v>13.299000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="O13">
+        <v>79.794000000000011</v>
+      </c>
+      <c r="P13">
+        <v>186.18600000000001</v>
+      </c>
+      <c r="Q13">
+        <v>219.43350000000001</v>
+      </c>
+      <c r="R13">
+        <v>146.28900000000002</v>
+      </c>
+      <c r="S13">
+        <v>239.38200000000001</v>
+      </c>
+      <c r="T13">
+        <v>279.279</v>
+      </c>
+      <c r="U13">
+        <v>631.70249999999999</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L14">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="M14">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="P14">
+        <v>152.9385</v>
+      </c>
+      <c r="Q14">
+        <v>179.53650000000002</v>
+      </c>
+      <c r="R14">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="S14">
+        <v>199.48500000000001</v>
+      </c>
+      <c r="T14">
+        <v>226.08300000000003</v>
+      </c>
+      <c r="U14">
+        <v>585.15600000000006</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L15">
+        <v>66.495000000000005</v>
+      </c>
+      <c r="M15">
+        <v>79.794000000000011</v>
+      </c>
+      <c r="N15">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>119.691</v>
+      </c>
+      <c r="Q15">
+        <v>159.58800000000002</v>
+      </c>
+      <c r="R15">
+        <v>84.227000000000004</v>
+      </c>
+      <c r="S15">
+        <v>168.45400000000001</v>
+      </c>
+      <c r="T15">
+        <v>207.46440000000001</v>
+      </c>
+      <c r="U15">
+        <v>565.6508</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L16">
+        <v>172.887</v>
+      </c>
+      <c r="M16">
+        <v>186.18600000000001</v>
+      </c>
+      <c r="N16">
+        <v>152.9385</v>
+      </c>
+      <c r="O16">
+        <v>119.691</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>53.196000000000005</v>
+      </c>
+      <c r="R16">
+        <v>142.74260000000001</v>
+      </c>
+      <c r="S16">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="T16">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="U16">
+        <v>438.86700000000002</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L17">
+        <v>212.78400000000002</v>
+      </c>
+      <c r="M17">
+        <v>219.43350000000001</v>
+      </c>
+      <c r="N17">
+        <v>179.53650000000002</v>
+      </c>
+      <c r="O17">
+        <v>159.58800000000002</v>
+      </c>
+      <c r="P17">
+        <v>53.196000000000005</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>178.20660000000001</v>
+      </c>
+      <c r="S17">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="T17">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="U17">
+        <v>398.97</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L18">
+        <v>132.99</v>
+      </c>
+      <c r="M18">
+        <v>146.28900000000002</v>
+      </c>
+      <c r="N18">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="O18">
+        <v>84.227000000000004</v>
+      </c>
+      <c r="P18">
+        <v>142.74260000000001</v>
+      </c>
+      <c r="Q18">
+        <v>178.20660000000001</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>182.6396</v>
+      </c>
+      <c r="T18">
+        <v>227.8562</v>
+      </c>
+      <c r="U18">
+        <v>562.10440000000006</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L19">
+        <v>232.73250000000002</v>
+      </c>
+      <c r="M19">
+        <v>239.38200000000001</v>
+      </c>
+      <c r="N19">
+        <v>199.48500000000001</v>
+      </c>
+      <c r="O19">
+        <v>168.45400000000001</v>
+      </c>
+      <c r="P19">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="Q19">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="R19">
+        <v>182.6396</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>67.381600000000006</v>
+      </c>
+      <c r="U19">
+        <v>393.65040000000005</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L20">
+        <v>265.98</v>
+      </c>
+      <c r="M20">
+        <v>279.279</v>
+      </c>
+      <c r="N20">
+        <v>226.08300000000003</v>
+      </c>
+      <c r="O20">
+        <v>207.46440000000001</v>
+      </c>
+      <c r="P20">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="Q20">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="R20">
+        <v>227.8562</v>
+      </c>
+      <c r="S20">
+        <v>67.381600000000006</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>386.55760000000004</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>598.45500000000004</v>
+      </c>
+      <c r="M21">
+        <v>631.70249999999999</v>
+      </c>
+      <c r="N21">
+        <v>585.15600000000006</v>
+      </c>
+      <c r="O21">
+        <v>565.6508</v>
+      </c>
+      <c r="P21">
+        <v>438.86700000000002</v>
+      </c>
+      <c r="Q21">
+        <v>398.97</v>
+      </c>
+      <c r="R21">
+        <v>562.10440000000006</v>
+      </c>
+      <c r="S21">
+        <v>393.65040000000005</v>
+      </c>
+      <c r="T21">
+        <v>386.55760000000004</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>13.299000000000001</v>
+      </c>
+      <c r="X22">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="Y22">
+        <v>66.495000000000005</v>
+      </c>
+      <c r="Z22">
+        <v>172.887</v>
+      </c>
+      <c r="AA22">
+        <v>212.78400000000002</v>
+      </c>
+      <c r="AB22">
+        <v>132.99</v>
+      </c>
+      <c r="AC22">
+        <v>232.73250000000002</v>
+      </c>
+      <c r="AD22">
+        <v>265.98</v>
+      </c>
+      <c r="AE22">
+        <v>598.45500000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V23">
+        <v>13.299000000000001</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="Y23">
+        <v>79.794000000000011</v>
+      </c>
+      <c r="Z23">
+        <v>186.18600000000001</v>
+      </c>
+      <c r="AA23">
+        <v>219.43350000000001</v>
+      </c>
+      <c r="AB23">
+        <v>146.28900000000002</v>
+      </c>
+      <c r="AC23">
+        <v>239.38200000000001</v>
+      </c>
+      <c r="AD23">
+        <v>279.279</v>
+      </c>
+      <c r="AE23">
+        <v>631.70249999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V24">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="W24">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="Z24">
+        <v>152.9385</v>
+      </c>
+      <c r="AA24">
+        <v>179.53650000000002</v>
+      </c>
+      <c r="AB24">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="AC24">
+        <v>199.48500000000001</v>
+      </c>
+      <c r="AD24">
+        <v>226.08300000000003</v>
+      </c>
+      <c r="AE24">
+        <v>585.15600000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V25">
+        <v>66.495000000000005</v>
+      </c>
+      <c r="W25">
+        <v>79.794000000000011</v>
+      </c>
+      <c r="X25">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>119.691</v>
+      </c>
+      <c r="AA25">
+        <v>159.58800000000002</v>
+      </c>
+      <c r="AB25">
+        <v>84.227000000000004</v>
+      </c>
+      <c r="AC25">
+        <v>168.45400000000001</v>
+      </c>
+      <c r="AD25">
+        <v>207.46440000000001</v>
+      </c>
+      <c r="AE25">
+        <v>565.6508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V26">
+        <v>172.887</v>
+      </c>
+      <c r="W26">
+        <v>186.18600000000001</v>
+      </c>
+      <c r="X26">
+        <v>152.9385</v>
+      </c>
+      <c r="Y26">
+        <v>119.691</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>53.196000000000005</v>
+      </c>
+      <c r="AB26">
+        <v>142.74260000000001</v>
+      </c>
+      <c r="AC26">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="AD26">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="AE26">
+        <v>438.86700000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V27">
+        <v>212.78400000000002</v>
+      </c>
+      <c r="W27">
+        <v>219.43350000000001</v>
+      </c>
+      <c r="X27">
+        <v>179.53650000000002</v>
+      </c>
+      <c r="Y27">
+        <v>159.58800000000002</v>
+      </c>
+      <c r="Z27">
+        <v>53.196000000000005</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>178.20660000000001</v>
+      </c>
+      <c r="AC27">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="AD27">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="AE27">
+        <v>398.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V28">
+        <v>132.99</v>
+      </c>
+      <c r="W28">
+        <v>146.28900000000002</v>
+      </c>
+      <c r="X28">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="Y28">
+        <v>84.227000000000004</v>
+      </c>
+      <c r="Z28">
+        <v>142.74260000000001</v>
+      </c>
+      <c r="AA28">
+        <v>178.20660000000001</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>182.6396</v>
+      </c>
+      <c r="AD28">
+        <v>227.8562</v>
+      </c>
+      <c r="AE28">
+        <v>562.10440000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V29">
+        <v>232.73250000000002</v>
+      </c>
+      <c r="W29">
+        <v>239.38200000000001</v>
+      </c>
+      <c r="X29">
+        <v>199.48500000000001</v>
+      </c>
+      <c r="Y29">
+        <v>168.45400000000001</v>
+      </c>
+      <c r="Z29">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="AA29">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="AB29">
+        <v>182.6396</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>67.381600000000006</v>
+      </c>
+      <c r="AE29">
+        <v>393.65040000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V30">
+        <v>265.98</v>
+      </c>
+      <c r="W30">
+        <v>279.279</v>
+      </c>
+      <c r="X30">
+        <v>226.08300000000003</v>
+      </c>
+      <c r="Y30">
+        <v>207.46440000000001</v>
+      </c>
+      <c r="Z30">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="AA30">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="AB30">
+        <v>227.8562</v>
+      </c>
+      <c r="AC30">
+        <v>67.381600000000006</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>386.55760000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>598.45500000000004</v>
+      </c>
+      <c r="W31">
+        <v>631.70249999999999</v>
+      </c>
+      <c r="X31">
+        <v>585.15600000000006</v>
+      </c>
+      <c r="Y31">
+        <v>565.6508</v>
+      </c>
+      <c r="Z31">
+        <v>438.86700000000002</v>
+      </c>
+      <c r="AA31">
+        <v>398.97</v>
+      </c>
+      <c r="AB31">
+        <v>562.10440000000006</v>
+      </c>
+      <c r="AC31">
+        <v>393.65040000000005</v>
+      </c>
+      <c r="AD31">
+        <v>386.55760000000004</v>
+      </c>
+      <c r="AE31">
         <v>0</v>
       </c>
     </row>
@@ -532,6 +3462,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -540,7 +3476,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100681C3DBB14C11C4283CE90F7E2CEED81" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="1e4e51489681ea6e8e4dae302cc97151">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0524291c256e6c42c037aedaf6833720">
     <xsd:element name="properties">
@@ -654,13 +3590,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90B8012-D311-4560-8D22-25CB97EB6158}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07536214-4A02-472A-BC7F-835736DB9A92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -668,7 +3613,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F42364DA-F7FE-4A9C-A6C7-78880B6D9115}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -682,19 +3627,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90B8012-D311-4560-8D22-25CB97EB6158}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>